--- a/src/main/resources/sap/kumppanikoodilistaus 16.8.2024.xlsx
+++ b/src/main/resources/sap/kumppanikoodilistaus 16.8.2024.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marjut/ya-integration/src/main/resources/sap/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD2EC13F-91F9-2D40-A942-4C5996068329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DC49DFD-71B7-7044-BAB3-0936D5D8B09A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{9F35AFC8-E604-48E8-B106-F42C461AAE0B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="346">
   <si>
     <t>0354148-6</t>
   </si>
@@ -233,12 +233,6 @@
     <t>0526</t>
   </si>
   <si>
-    <t>1090036-0</t>
-  </si>
-  <si>
-    <t>0692</t>
-  </si>
-  <si>
     <t>1460820-1</t>
   </si>
   <si>
@@ -1071,6 +1065,15 @@
   </si>
   <si>
     <t>kumppanikoodi</t>
+  </si>
+  <si>
+    <t>3398876-4</t>
+  </si>
+  <si>
+    <t>0555</t>
+  </si>
+  <si>
+    <t>3325860-6</t>
   </si>
 </sst>
 </file>
@@ -1104,15 +1107,21 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDCE6F1"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1120,11 +1129,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1143,6 +1167,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1457,10 +1488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51CAFB50-F1A7-44BA-8141-69DB0B5C50E6}">
-  <dimension ref="A1:B188"/>
+  <dimension ref="A1:E189"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A168" workbookViewId="0">
+      <selection activeCell="C189" sqref="C189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1472,10 +1503,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -1826,7 +1857,7 @@
       <c r="A45" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="6" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1834,7 +1865,7 @@
       <c r="A46" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="4" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1875,12 +1906,12 @@
         <v>91</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>92</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>19</v>
@@ -1888,10 +1919,10 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B53" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.15">
@@ -1931,15 +1962,15 @@
         <v>103</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>104</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B59" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.15">
@@ -1947,12 +1978,12 @@
         <v>106</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>107</v>
+        <v>19</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>19</v>
@@ -1960,7 +1991,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>19</v>
@@ -1968,10 +1999,10 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B63" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.15">
@@ -1979,22 +2010,22 @@
         <v>111</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>112</v>
+        <v>33</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B65" s="6" t="s">
         <v>113</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B66" s="6" t="s">
+      <c r="B66" s="4" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2027,22 +2058,22 @@
         <v>122</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>123</v>
+        <v>19</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B71" s="6" t="s">
         <v>124</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B72" s="6" t="s">
+      <c r="B72" s="4" t="s">
         <v>126</v>
       </c>
     </row>
@@ -2051,15 +2082,15 @@
         <v>127</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>128</v>
+        <v>33</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B74" s="4" t="s">
         <v>129</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.15">
@@ -2107,31 +2138,31 @@
         <v>140</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>141</v>
+        <v>19</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A82" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B83" s="4" t="s">
         <v>144</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.15">
@@ -2179,12 +2210,12 @@
         <v>155</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>156</v>
+        <v>19</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A90" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>19</v>
@@ -2192,7 +2223,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A91" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>19</v>
@@ -2200,7 +2231,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A92" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>19</v>
@@ -2208,10 +2239,10 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A93" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B93" s="4" t="s">
         <v>160</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.15">
@@ -2275,15 +2306,15 @@
         <v>175</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>176</v>
+        <v>3</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A102" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B102" s="4" t="s">
         <v>177</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.15">
@@ -2395,15 +2426,15 @@
         <v>204</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>205</v>
+        <v>3</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A117" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B117" s="4" t="s">
         <v>206</v>
-      </c>
-      <c r="B117" s="4" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.15">
@@ -2411,12 +2442,12 @@
         <v>207</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>208</v>
+        <v>19</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A119" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B119" s="4" t="s">
         <v>19</v>
@@ -2424,7 +2455,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A120" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>19</v>
@@ -2432,7 +2463,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A121" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B121" s="4" t="s">
         <v>19</v>
@@ -2440,10 +2471,10 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A122" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B122" s="4" t="s">
         <v>212</v>
-      </c>
-      <c r="B122" s="4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.15">
@@ -2467,15 +2498,15 @@
         <v>217</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>218</v>
+        <v>78</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A126" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B126" s="4" t="s">
         <v>219</v>
-      </c>
-      <c r="B126" s="4" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.15">
@@ -2499,22 +2530,22 @@
         <v>224</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>225</v>
+        <v>33</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A130" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B130" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="B130" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A131" s="1" t="s">
+    </row>
+    <row r="131" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+      <c r="A131" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B131" s="4" t="s">
+      <c r="B131" s="6" t="s">
         <v>228</v>
       </c>
     </row>
@@ -2554,15 +2585,15 @@
       <c r="A136" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="B136" s="6" t="s">
+      <c r="B136" s="7" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="137" spans="1:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="A137" s="2" t="s">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A137" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B137" s="7" t="s">
+      <c r="B137" s="6" t="s">
         <v>240</v>
       </c>
     </row>
@@ -2570,7 +2601,7 @@
       <c r="A138" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B138" s="6" t="s">
+      <c r="B138" s="4" t="s">
         <v>242</v>
       </c>
     </row>
@@ -2578,7 +2609,7 @@
       <c r="A139" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B139" s="4" t="s">
+      <c r="B139" s="6" t="s">
         <v>244</v>
       </c>
     </row>
@@ -2674,7 +2705,7 @@
       <c r="A151" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="B151" s="6" t="s">
+      <c r="B151" s="4" t="s">
         <v>268</v>
       </c>
     </row>
@@ -2682,7 +2713,7 @@
       <c r="A152" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="B152" s="4" t="s">
+      <c r="B152" s="6" t="s">
         <v>270</v>
       </c>
     </row>
@@ -2878,7 +2909,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A177" s="1" t="s">
         <v>319</v>
       </c>
@@ -2886,7 +2917,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A178" s="1" t="s">
         <v>321</v>
       </c>
@@ -2894,7 +2925,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A179" s="1" t="s">
         <v>323</v>
       </c>
@@ -2902,7 +2933,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A180" s="1" t="s">
         <v>325</v>
       </c>
@@ -2910,7 +2941,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A181" s="1" t="s">
         <v>327</v>
       </c>
@@ -2918,7 +2949,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A182" s="1" t="s">
         <v>329</v>
       </c>
@@ -2926,7 +2957,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A183" s="1" t="s">
         <v>331</v>
       </c>
@@ -2934,23 +2965,24 @@
         <v>332</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A184" s="1" t="s">
         <v>333</v>
       </c>
       <c r="B184" s="6" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A185" s="1" t="s">
+      <c r="E184" s="10"/>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A185" s="6" t="s">
         <v>335</v>
       </c>
       <c r="B185" s="6" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A186" s="6" t="s">
         <v>337</v>
       </c>
@@ -2958,7 +2990,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A187" s="6" t="s">
         <v>339</v>
       </c>
@@ -2966,12 +2998,20 @@
         <v>340</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A188" s="6" t="s">
-        <v>341</v>
-      </c>
-      <c r="B188" s="6" t="s">
-        <v>342</v>
+    <row r="188" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A188" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="B188" s="9" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A189" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="B189" s="9" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
